--- a/SchedulingData/static3/pso/scheduling1_14.xlsx
+++ b/SchedulingData/static3/pso/scheduling1_14.xlsx
@@ -462,45 +462,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>37.5</v>
+        <v>44.46</v>
       </c>
       <c r="E2" t="n">
-        <v>27.44</v>
+        <v>26.744</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>96.09999999999999</v>
+        <v>65.48</v>
       </c>
       <c r="E3" t="n">
-        <v>25.06</v>
+        <v>26.612</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>65.88</v>
+        <v>60.88</v>
       </c>
       <c r="E4" t="n">
         <v>25.112</v>
@@ -519,40 +519,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E5" t="n">
-        <v>24.68</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>91.45999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="E6" t="n">
-        <v>24.184</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>44.46</v>
       </c>
       <c r="D7" t="n">
-        <v>75.3</v>
+        <v>111.64</v>
       </c>
       <c r="E7" t="n">
-        <v>26.6</v>
+        <v>22.136</v>
       </c>
     </row>
     <row r="8">
@@ -580,17 +580,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>70</v>
+        <v>60.88</v>
       </c>
       <c r="D8" t="n">
-        <v>130.3</v>
+        <v>98.58</v>
       </c>
       <c r="E8" t="n">
-        <v>20.76</v>
+        <v>22.472</v>
       </c>
     </row>
     <row r="9">
@@ -599,41 +599,41 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>130.3</v>
+        <v>98.58</v>
       </c>
       <c r="D9" t="n">
-        <v>175.48</v>
+        <v>147.82</v>
       </c>
       <c r="E9" t="n">
-        <v>17.372</v>
+        <v>19.168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>147.82</v>
       </c>
       <c r="D10" t="n">
-        <v>53.3</v>
+        <v>189.62</v>
       </c>
       <c r="E10" t="n">
-        <v>27.36</v>
+        <v>16.608</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -641,18 +641,18 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>96.09999999999999</v>
+        <v>65.48</v>
       </c>
       <c r="D11" t="n">
-        <v>165.2</v>
+        <v>134.68</v>
       </c>
       <c r="E11" t="n">
-        <v>19.78</v>
+        <v>21.332</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -660,32 +660,32 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>75.3</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>140.08</v>
+        <v>70.28</v>
       </c>
       <c r="E12" t="n">
-        <v>22.232</v>
+        <v>25.632</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>165.2</v>
+        <v>63</v>
       </c>
       <c r="D13" t="n">
-        <v>209.04</v>
+        <v>137.4</v>
       </c>
       <c r="E13" t="n">
-        <v>17.536</v>
+        <v>19.58</v>
       </c>
     </row>
     <row r="14">
@@ -694,17 +694,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>175.48</v>
+        <v>189.62</v>
       </c>
       <c r="D14" t="n">
-        <v>254.28</v>
+        <v>254.82</v>
       </c>
       <c r="E14" t="n">
-        <v>12.612</v>
+        <v>12.688</v>
       </c>
     </row>
     <row r="15">
@@ -713,174 +713,174 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>65.88</v>
+        <v>70.28</v>
       </c>
       <c r="D15" t="n">
-        <v>123.28</v>
+        <v>121.24</v>
       </c>
       <c r="E15" t="n">
-        <v>20.012</v>
+        <v>22.156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>91.45999999999999</v>
+        <v>111.64</v>
       </c>
       <c r="D16" t="n">
-        <v>157.12</v>
+        <v>191.24</v>
       </c>
       <c r="E16" t="n">
-        <v>20.708</v>
+        <v>16.796</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>53.3</v>
+        <v>191.24</v>
       </c>
       <c r="D17" t="n">
-        <v>119.84</v>
+        <v>249.88</v>
       </c>
       <c r="E17" t="n">
-        <v>23.796</v>
+        <v>14.552</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>209.04</v>
+        <v>121.24</v>
       </c>
       <c r="D18" t="n">
-        <v>268.38</v>
+        <v>153.16</v>
       </c>
       <c r="E18" t="n">
-        <v>14.232</v>
+        <v>19.604</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>157.12</v>
+        <v>80.3</v>
       </c>
       <c r="D19" t="n">
-        <v>239.96</v>
+        <v>145.38</v>
       </c>
       <c r="E19" t="n">
-        <v>18.004</v>
+        <v>22.232</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>239.96</v>
+        <v>137.4</v>
       </c>
       <c r="D20" t="n">
-        <v>292.36</v>
+        <v>180.64</v>
       </c>
       <c r="E20" t="n">
-        <v>14.404</v>
+        <v>16.876</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>123.28</v>
+        <v>145.38</v>
       </c>
       <c r="D21" t="n">
-        <v>192.88</v>
+        <v>214.28</v>
       </c>
       <c r="E21" t="n">
-        <v>14.672</v>
+        <v>17.472</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>140.08</v>
+        <v>180.64</v>
       </c>
       <c r="D22" t="n">
-        <v>181.8</v>
+        <v>233.04</v>
       </c>
       <c r="E22" t="n">
-        <v>19.68</v>
+        <v>13.276</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>119.84</v>
+        <v>214.28</v>
       </c>
       <c r="D23" t="n">
-        <v>187.12</v>
+        <v>256.32</v>
       </c>
       <c r="E23" t="n">
-        <v>19.188</v>
+        <v>13.908</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -888,13 +888,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>187.12</v>
+        <v>134.68</v>
       </c>
       <c r="D24" t="n">
-        <v>246.92</v>
+        <v>184.48</v>
       </c>
       <c r="E24" t="n">
-        <v>15.348</v>
+        <v>17.492</v>
       </c>
     </row>
     <row r="25">
@@ -903,17 +903,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>192.88</v>
+        <v>153.16</v>
       </c>
       <c r="D25" t="n">
-        <v>267.46</v>
+        <v>248.66</v>
       </c>
       <c r="E25" t="n">
-        <v>10.304</v>
+        <v>14.664</v>
       </c>
     </row>
   </sheetData>
